--- a/BOM_schematic_layout/ECE411-T6-BOM 11_14_2019.xlsx
+++ b/BOM_schematic_layout/ECE411-T6-BOM 11_14_2019.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="106">
   <si>
     <t>Qty / Board</t>
   </si>
@@ -299,6 +299,15 @@
   </si>
   <si>
     <t>Microprocessor</t>
+  </si>
+  <si>
+    <t>Schurter</t>
+  </si>
+  <si>
+    <t>BUTTON</t>
+  </si>
+  <si>
+    <t>Flush OFF - (ON) Button</t>
   </si>
   <si>
     <t>Total:</t>
@@ -329,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -386,6 +395,15 @@
       <color rgb="FF3C78D8"/>
     </font>
     <font>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF3C78D8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -422,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -473,13 +491,25 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -744,7 +774,7 @@
         <v>2.0</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B23" si="1">A2*4</f>
+        <f t="shared" ref="B2:B24" si="1">A2*4</f>
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -766,11 +796,11 @@
         <v>0.26</v>
       </c>
       <c r="I2" s="7">
-        <f t="shared" ref="I2:I23" si="2">H2*A2</f>
+        <f t="shared" ref="I2:I24" si="2">H2*A2</f>
         <v>0.52</v>
       </c>
       <c r="J2" s="7">
-        <f t="shared" ref="J2:J23" si="3">H2*B2</f>
+        <f t="shared" ref="J2:J24" si="3">H2*B2</f>
         <v>2.08</v>
       </c>
     </row>
@@ -1515,56 +1545,91 @@
         <v>8.56</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1241.1072</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="21">
+        <v>3.01</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="2"/>
+        <v>3.01</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
+        <v>12.04</v>
+      </c>
+    </row>
     <row r="27">
-      <c r="H27" s="18" t="s">
-        <v>96</v>
+      <c r="H27" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" ref="I27:J27" si="4">SUM(I2:I23)</f>
-        <v>39.79</v>
+        <f t="shared" ref="I27:J27" si="4">SUM(I2:I24)</f>
+        <v>42.8</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" si="4"/>
-        <v>159.16</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="31">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="19" t="s">
-        <v>97</v>
+      <c r="F31" s="23" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G32" s="3">
-        <f>COUNTIF(G2:G23,"Through-Hole")</f>
-        <v>6</v>
+        <f>COUNTIF(G2:G24,"Through-Hole")</f>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G33" s="3">
-        <f>SUMIF(G2:G23,"Through-Hole",A2:A23)</f>
-        <v>11</v>
+        <f>SUMIF(G2:G24,"Through-Hole",A2:A23)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G34" s="20">
-        <f>COUNTIF(G2:G23,"SMD")</f>
+        <v>103</v>
+      </c>
+      <c r="G34" s="24">
+        <f>COUNTIF(G2:G24,"SMD")</f>
         <v>15</v>
       </c>
     </row>
@@ -1572,10 +1637,10 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G35" s="20">
-        <f>SUMIF(G2:G23,"SMD",A2:A23)</f>
+        <v>104</v>
+      </c>
+      <c r="G35" s="24">
+        <f>SUMIF(G2:G24,"SMD",A2:A23)</f>
         <v>28</v>
       </c>
     </row>
@@ -1583,11 +1648,11 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G36" s="3">
         <f>G35/(G33+G35)*100</f>
-        <v>71.79487179</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1683,8 @@
     <hyperlink r:id="rId21" ref="D21"/>
     <hyperlink r:id="rId22" ref="D22"/>
     <hyperlink r:id="rId23" ref="D23"/>
+    <hyperlink r:id="rId24" ref="D24"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId25"/>
 </worksheet>
 </file>